--- a/Dashboarding-Excel/demo.xlsx
+++ b/Dashboarding-Excel/demo.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baha Tegar\Desktop\Preparation\Dashboarding-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E55DC4-5AB9-41D0-B155-7A5B4DBE390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7483F-4039-4B0F-86D6-0D2E2095889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{795AF065-2D35-4494-955C-2255E19A8182}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="114">
   <si>
     <t>Scrolling table - details of KPI</t>
   </si>
@@ -339,12 +340,97 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>Calculations for scrolling table</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit </t>
+  </si>
+  <si>
+    <t>Variance Actual to PY</t>
+  </si>
+  <si>
+    <t>Variance Actual to Budget</t>
+  </si>
+  <si>
+    <t>% Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Profit </t>
+  </si>
+  <si>
+    <t>% Cash</t>
+  </si>
+  <si>
+    <t>Calculations for data bars in scrolling table</t>
+  </si>
+  <si>
+    <t>Min %</t>
+  </si>
+  <si>
+    <t>Max %</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +461,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +558,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,10 +709,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -603,9 +740,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -640,18 +774,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF77BBE2"/>
+      <color rgb="FFD2E9F6"/>
+      <color rgb="FF638EC6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -663,7 +927,178 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="calculation!$D$5" max="11" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="3" dropStyle="combo" dx="26" fmlaLink="calculation!$D$4" fmlaRange="calculation!$C$15:$C$17" noThreeD="1" sel="1" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>13730</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>535460</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>171623</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>179927</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>3552</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>350449</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>3552</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="Scroll Bar 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12410</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>105465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638B6EA8-2912-44C3-A06A-0B92072B9195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12048" t="18015"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7620"/>
+          <a:ext cx="782030" cy="562665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1295,7 +1730,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1430,7 +1865,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="KPI-Dashboard">
   <a:themeElements>
     <a:clrScheme name="Custom 1">
       <a:dk1>
@@ -1691,47 +2126,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96843A-17A3-4385-83DB-AA12F548D4F4}">
-  <dimension ref="E5:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96843A-17A3-4385-83DB-AA12F548D4F4}">
+  <dimension ref="B2:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" customWidth="1"/>
+    <col min="4" max="4" width="4.19921875" customWidth="1"/>
+    <col min="7" max="7" width="1.796875" customWidth="1"/>
+    <col min="10" max="10" width="1.796875" customWidth="1"/>
+    <col min="12" max="12" width="3.09765625" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" customWidth="1"/>
+    <col min="18" max="18" width="1.796875" customWidth="1"/>
+    <col min="20" max="20" width="3.09765625" customWidth="1"/>
+    <col min="21" max="21" width="5.19921875" customWidth="1"/>
+    <col min="23" max="23" width="1.796875" customWidth="1"/>
+    <col min="26" max="26" width="1.796875" customWidth="1"/>
+    <col min="28" max="28" width="3.09765625" customWidth="1"/>
+    <col min="29" max="29" width="4.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="2" spans="2:30" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="57">
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="57" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>94</v>
       </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="F10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="N10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="V10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AD10" s="39"/>
+    </row>
+    <row r="11" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB11" s="49"/>
+      <c r="AD11" s="39"/>
+    </row>
+    <row r="12" spans="2:30" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AD12" s="39"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="49">
+        <f>INDEX(calculation!M15:$M$34,calculation!$D$5)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="49" t="str">
+        <f>INDEX(calculation!N15:$N$34,calculation!$D$5)</f>
+        <v>WenCaL</v>
+      </c>
+      <c r="F13" s="54">
+        <f>INDEX(calculation!O15:$O$34,calculation!$D$5)</f>
+        <v>14432</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="55">
+        <f>INDEX(calculation!X15:$X$34,calculation!$D$5)</f>
+        <v>5.3507555296007009E-2</v>
+      </c>
+      <c r="I13" s="49">
+        <f>INDEX(calculation!X15:$X$34,calculation!$D$5)</f>
+        <v>5.3507555296007009E-2</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="55">
+        <f>INDEX(calculation!AA15:$AA$34,calculation!$D$5)</f>
+        <v>-9.3561834182491893E-2</v>
+      </c>
+      <c r="L13" s="49" t="str">
+        <f>IF(K13&lt;&gt; "",IF(K13 &gt;= 0.05,"▲",IF(K13 &lt; -0.05,"▼","")),"")</f>
+        <v>▼</v>
+      </c>
+      <c r="M13" s="49"/>
+      <c r="N13" s="54">
+        <f>INDEX(calculation!P15:$P$34,calculation!$D$5)</f>
+        <v>240</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="56">
+        <f>INDEX(calculation!Y15:$Y$34,calculation!$D$5)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q13" s="49">
+        <f>INDEX(calculation!Y15:$Y$34,calculation!$D$5)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R13" s="49"/>
+      <c r="S13" s="55">
+        <f>INDEX(calculation!$AB15:AB$34,calculation!$D$5)</f>
+        <v>-0.42148760330578511</v>
+      </c>
+      <c r="T13" s="49" t="str">
+        <f>IF(S13&lt;&gt; "",IF(S13 &gt;= 0.05,"▲",IF(S13 &lt; -0.05,"▼","")),"")</f>
+        <v>▼</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="54">
+        <f>INDEX(calculation!W15:$W$34,calculation!$D$5)</f>
+        <v>11468</v>
+      </c>
+      <c r="W13" s="49"/>
+      <c r="X13" s="56">
+        <f>INDEX(calculation!Z15:$Z$34,calculation!$D$5)</f>
+        <v>-7.9532260739757832E-2</v>
+      </c>
+      <c r="Y13" s="49">
+        <f>INDEX(calculation!Z15:$Z$34,calculation!$D$5)</f>
+        <v>-7.9532260739757832E-2</v>
+      </c>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="55">
+        <f>INDEX(calculation!AC15:$AC$34,calculation!$D$5)</f>
+        <v>5.1447506103941401E-2</v>
+      </c>
+      <c r="AB13" s="49" t="str">
+        <f>IF(AA13&lt;&gt; "",IF(AA13 &gt;= 0.05,"▲",IF(AA13 &lt; -0.05,"▼","")),"")</f>
+        <v>▲</v>
+      </c>
+      <c r="AD13" s="39"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49">
+        <f>INDEX(calculation!M16:$M$34,calculation!$D$5)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="49" t="str">
+        <f>INDEX(calculation!N16:$N$34,calculation!$D$5)</f>
+        <v>Blend</v>
+      </c>
+      <c r="F14" s="54">
+        <f>INDEX(calculation!O16:$O$34,calculation!$D$5)</f>
+        <v>17990</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="55">
+        <f>INDEX(calculation!X16:$X$34,calculation!$D$5)</f>
+        <v>9.728575785300396E-2</v>
+      </c>
+      <c r="I14" s="49">
+        <f>INDEX(calculation!X16:$X$34,calculation!$D$5)</f>
+        <v>9.728575785300396E-2</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="55">
+        <f>INDEX(calculation!AA16:$AA$34,calculation!$D$5)</f>
+        <v>-9.82344205489247E-2</v>
+      </c>
+      <c r="L14" s="49" t="str">
+        <f t="shared" ref="L14:L22" si="0">IF(K14&lt;&gt; "",IF(K14 &gt;= 0.05,"▲",IF(K14 &lt; -0.05,"▼","")),"")</f>
+        <v>▼</v>
+      </c>
+      <c r="M14" s="49"/>
+      <c r="N14" s="54">
+        <f>INDEX(calculation!P16:$P$34,calculation!$D$5)</f>
+        <v>1166</v>
+      </c>
+      <c r="O14" s="49"/>
+      <c r="P14" s="56">
+        <f>INDEX(calculation!Y16:$Y$34,calculation!$D$5)</f>
+        <v>0.16251246261216351</v>
+      </c>
+      <c r="Q14" s="49">
+        <f>INDEX(calculation!Y16:$Y$34,calculation!$D$5)</f>
+        <v>0.16251246261216351</v>
+      </c>
+      <c r="R14" s="49"/>
+      <c r="S14" s="55">
+        <f>INDEX(calculation!$AB16:AB$34,calculation!$D$5)</f>
+        <v>-0.17988552739165986</v>
+      </c>
+      <c r="T14" s="49" t="str">
+        <f t="shared" ref="T14:T22" si="1">IF(S14&lt;&gt; "",IF(S14 &gt;= 0.05,"▲",IF(S14 &lt; -0.05,"▼","")),"")</f>
+        <v>▼</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="54">
+        <f>INDEX(calculation!W16:$W$34,calculation!$D$5)</f>
+        <v>8196</v>
+      </c>
+      <c r="W14" s="49"/>
+      <c r="X14" s="56">
+        <f>INDEX(calculation!Z16:$Z$34,calculation!$D$5)</f>
+        <v>-3.8528896672504379E-2</v>
+      </c>
+      <c r="Y14" s="49">
+        <f>INDEX(calculation!Z16:$Z$34,calculation!$D$5)</f>
+        <v>-3.8528896672504379E-2</v>
+      </c>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="55">
+        <f>INDEX(calculation!AC16:$AC$34,calculation!$D$5)</f>
+        <v>-9.4314299658369932E-2</v>
+      </c>
+      <c r="AB14" s="49" t="str">
+        <f t="shared" ref="AB14:AB22" si="2">IF(AA14&lt;&gt; "",IF(AA14 &gt;= 0.05,"▲",IF(AA14 &lt; -0.05,"▼","")),"")</f>
+        <v>▼</v>
+      </c>
+      <c r="AD14" s="39"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="49">
+        <f>INDEX(calculation!M17:$M$34,calculation!$D$5)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="49" t="str">
+        <f>INDEX(calculation!N17:$N$34,calculation!$D$5)</f>
+        <v>Voltage</v>
+      </c>
+      <c r="F15" s="54">
+        <f>INDEX(calculation!O17:$O$34,calculation!$D$5)</f>
+        <v>15117</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="55">
+        <f>INDEX(calculation!X17:$X$34,calculation!$D$5)</f>
+        <v>6.924600367803084E-2</v>
+      </c>
+      <c r="I15" s="49">
+        <f>INDEX(calculation!X17:$X$34,calculation!$D$5)</f>
+        <v>6.924600367803084E-2</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="55">
+        <f>INDEX(calculation!AA17:$AA$34,calculation!$D$5)</f>
+        <v>5.0761798587885543E-2</v>
+      </c>
+      <c r="L15" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>▲</v>
+      </c>
+      <c r="M15" s="49"/>
+      <c r="N15" s="54">
+        <f>INDEX(calculation!P17:$P$34,calculation!$D$5)</f>
+        <v>1613</v>
+      </c>
+      <c r="O15" s="54"/>
+      <c r="P15" s="56">
+        <f>INDEX(calculation!Y17:$Y$34,calculation!$D$5)</f>
+        <v>0.34416666666666668</v>
+      </c>
+      <c r="Q15" s="49">
+        <f>INDEX(calculation!Y17:$Y$34,calculation!$D$5)</f>
+        <v>0.34416666666666668</v>
+      </c>
+      <c r="R15" s="49"/>
+      <c r="S15" s="55">
+        <f>INDEX(calculation!$AB17:AB$34,calculation!$D$5)</f>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="T15" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▼</v>
+      </c>
+      <c r="U15" s="49"/>
+      <c r="V15" s="54">
+        <f>INDEX(calculation!W17:$W$34,calculation!$D$5)</f>
+        <v>5810</v>
+      </c>
+      <c r="W15" s="49"/>
+      <c r="X15" s="56">
+        <f>INDEX(calculation!Z17:$Z$34,calculation!$D$5)</f>
+        <v>-6.1815840309079204E-2</v>
+      </c>
+      <c r="Y15" s="49">
+        <f>INDEX(calculation!Z17:$Z$34,calculation!$D$5)</f>
+        <v>-6.1815840309079204E-2</v>
+      </c>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="55">
+        <f>INDEX(calculation!AC17:$AC$34,calculation!$D$5)</f>
+        <v>6.9191049913941483E-2</v>
+      </c>
+      <c r="AB15" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>▲</v>
+      </c>
+      <c r="AD15" s="39"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="49">
+        <f>INDEX(calculation!M18:$M$34,calculation!$D$5)</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="49" t="str">
+        <f>INDEX(calculation!N18:$N$34,calculation!$D$5)</f>
+        <v>Inkly</v>
+      </c>
+      <c r="F16" s="54">
+        <f>INDEX(calculation!O18:$O$34,calculation!$D$5)</f>
+        <v>11154</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="55">
+        <f>INDEX(calculation!X18:$X$34,calculation!$D$5)</f>
+        <v>-3.0255607720396451E-2</v>
+      </c>
+      <c r="I16" s="49">
+        <f>INDEX(calculation!X18:$X$34,calculation!$D$5)</f>
+        <v>-3.0255607720396451E-2</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="55">
+        <f>INDEX(calculation!AA18:$AA$34,calculation!$D$5)</f>
+        <v>-4.3969744825866512E-2</v>
+      </c>
+      <c r="L16" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="49"/>
+      <c r="N16" s="54">
+        <f>INDEX(calculation!P18:$P$34,calculation!$D$5)</f>
+        <v>731</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" s="56">
+        <f>INDEX(calculation!Y18:$Y$34,calculation!$D$5)</f>
+        <v>0.4649298597194389</v>
+      </c>
+      <c r="Q16" s="49">
+        <f>INDEX(calculation!Y18:$Y$34,calculation!$D$5)</f>
+        <v>0.4649298597194389</v>
+      </c>
+      <c r="R16" s="49"/>
+      <c r="S16" s="55">
+        <f>INDEX(calculation!$AB18:AB$34,calculation!$D$5)</f>
+        <v>-0.22152886115444617</v>
+      </c>
+      <c r="T16" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▼</v>
+      </c>
+      <c r="U16" s="49"/>
+      <c r="V16" s="54">
+        <f>INDEX(calculation!W18:$W$34,calculation!$D$5)</f>
+        <v>8424</v>
+      </c>
+      <c r="W16" s="49"/>
+      <c r="X16" s="56">
+        <f>INDEX(calculation!Z18:$Z$34,calculation!$D$5)</f>
+        <v>-0.1055512118842846</v>
+      </c>
+      <c r="Y16" s="49">
+        <f>INDEX(calculation!Z18:$Z$34,calculation!$D$5)</f>
+        <v>-0.1055512118842846</v>
+      </c>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="55">
+        <f>INDEX(calculation!AC18:$AC$34,calculation!$D$5)</f>
+        <v>6.279677113010447E-2</v>
+      </c>
+      <c r="AB16" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>▲</v>
+      </c>
+      <c r="AD16" s="39"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="49">
+        <f>INDEX(calculation!M19:$M$34,calculation!$D$5)</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="49" t="str">
+        <f>INDEX(calculation!N19:$N$34,calculation!$D$5)</f>
+        <v>Sleops</v>
+      </c>
+      <c r="F17" s="54">
+        <f>INDEX(calculation!O19:$O$34,calculation!$D$5)</f>
+        <v>11022</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="55">
+        <f>INDEX(calculation!X19:$X$34,calculation!$D$5)</f>
+        <v>-0.24733679322589455</v>
+      </c>
+      <c r="I17" s="49">
+        <f>INDEX(calculation!X19:$X$34,calculation!$D$5)</f>
+        <v>-0.24733679322589455</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="55">
+        <f>INDEX(calculation!AA19:$AA$34,calculation!$D$5)</f>
+        <v>0.11683953630262355</v>
+      </c>
+      <c r="L17" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>▲</v>
+      </c>
+      <c r="M17" s="49"/>
+      <c r="N17" s="54">
+        <f>INDEX(calculation!P19:$P$34,calculation!$D$5)</f>
+        <v>550</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="56">
+        <f>INDEX(calculation!Y19:$Y$34,calculation!$D$5)</f>
+        <v>-0.29487179487179488</v>
+      </c>
+      <c r="Q17" s="49">
+        <f>INDEX(calculation!Y19:$Y$34,calculation!$D$5)</f>
+        <v>-0.29487179487179488</v>
+      </c>
+      <c r="R17" s="49"/>
+      <c r="S17" s="55">
+        <f>INDEX(calculation!$AB19:AB$34,calculation!$D$5)</f>
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="T17" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▲</v>
+      </c>
+      <c r="U17" s="49"/>
+      <c r="V17" s="54">
+        <f>INDEX(calculation!W19:$W$34,calculation!$D$5)</f>
+        <v>8193</v>
+      </c>
+      <c r="W17" s="49"/>
+      <c r="X17" s="56">
+        <f>INDEX(calculation!Z19:$Z$34,calculation!$D$5)</f>
+        <v>3.8062283737024222E-2</v>
+      </c>
+      <c r="Y17" s="49">
+        <f>INDEX(calculation!Z19:$Z$34,calculation!$D$5)</f>
+        <v>3.8062283737024222E-2</v>
+      </c>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="55">
+        <f>INDEX(calculation!AC19:$AC$34,calculation!$D$5)</f>
+        <v>5.8220432076162579E-2</v>
+      </c>
+      <c r="AB17" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>▲</v>
+      </c>
+      <c r="AD17" s="39"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="49">
+        <f>INDEX(calculation!M20:$M$34,calculation!$D$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="49" t="str">
+        <f>INDEX(calculation!N20:$N$34,calculation!$D$5)</f>
+        <v>Kind Ape</v>
+      </c>
+      <c r="F18" s="54">
+        <f>INDEX(calculation!O20:$O$34,calculation!$D$5)</f>
+        <v>8905</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="55">
+        <f>INDEX(calculation!X20:$X$34,calculation!$D$5)</f>
+        <v>1.2391996361982719E-2</v>
+      </c>
+      <c r="I18" s="49">
+        <f>INDEX(calculation!X20:$X$34,calculation!$D$5)</f>
+        <v>1.2391996361982719E-2</v>
+      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="55">
+        <f>INDEX(calculation!AA20:$AA$34,calculation!$D$5)</f>
+        <v>-3.2981530343007916E-2</v>
+      </c>
+      <c r="L18" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M18" s="49"/>
+      <c r="N18" s="54">
+        <f>INDEX(calculation!P20:$P$34,calculation!$D$5)</f>
+        <v>469</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="56">
+        <f>INDEX(calculation!Y20:$Y$34,calculation!$D$5)</f>
+        <v>0.48417721518987344</v>
+      </c>
+      <c r="Q18" s="49">
+        <f>INDEX(calculation!Y20:$Y$34,calculation!$D$5)</f>
+        <v>0.48417721518987344</v>
+      </c>
+      <c r="R18" s="49"/>
+      <c r="S18" s="55">
+        <f>INDEX(calculation!$AB20:AB$34,calculation!$D$5)</f>
+        <v>-0.49032258064516127</v>
+      </c>
+      <c r="T18" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▼</v>
+      </c>
+      <c r="U18" s="49"/>
+      <c r="V18" s="54">
+        <f>INDEX(calculation!W20:$W$34,calculation!$D$5)</f>
+        <v>5804</v>
+      </c>
+      <c r="W18" s="49"/>
+      <c r="X18" s="56">
+        <f>INDEX(calculation!Z20:$Z$34,calculation!$D$5)</f>
+        <v>-3.5994240921452571E-2</v>
+      </c>
+      <c r="Y18" s="49">
+        <f>INDEX(calculation!Z20:$Z$34,calculation!$D$5)</f>
+        <v>-3.5994240921452571E-2</v>
+      </c>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="55">
+        <f>INDEX(calculation!AC20:$AC$34,calculation!$D$5)</f>
+        <v>7.701585113714679E-2</v>
+      </c>
+      <c r="AB18" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>▲</v>
+      </c>
+      <c r="AD18" s="39"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="49">
+        <f>INDEX(calculation!M21:$M$34,calculation!$D$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="49" t="str">
+        <f>INDEX(calculation!N21:$N$34,calculation!$D$5)</f>
+        <v>Pet Feed</v>
+      </c>
+      <c r="F19" s="54">
+        <f>INDEX(calculation!O21:$O$34,calculation!$D$5)</f>
+        <v>16735</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="55">
+        <f>INDEX(calculation!X21:$X$34,calculation!$D$5)</f>
+        <v>-4.3878192309889735E-2</v>
+      </c>
+      <c r="I19" s="49">
+        <f>INDEX(calculation!X21:$X$34,calculation!$D$5)</f>
+        <v>-4.3878192309889735E-2</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="55">
+        <f>INDEX(calculation!AA21:$AA$34,calculation!$D$5)</f>
+        <v>-3.8666446970945241E-2</v>
+      </c>
+      <c r="L19" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="49"/>
+      <c r="N19" s="54">
+        <f>INDEX(calculation!P21:$P$34,calculation!$D$5)</f>
+        <v>800</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="56">
+        <f>INDEX(calculation!Y21:$Y$34,calculation!$D$5)</f>
+        <v>-0.26131117266851339</v>
+      </c>
+      <c r="Q19" s="49">
+        <f>INDEX(calculation!Y21:$Y$34,calculation!$D$5)</f>
+        <v>-0.26131117266851339</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="55">
+        <f>INDEX(calculation!$AB21:AB$34,calculation!$D$5)</f>
+        <v>-7.9081632653061229E-2</v>
+      </c>
+      <c r="T19" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▼</v>
+      </c>
+      <c r="U19" s="49"/>
+      <c r="V19" s="54">
+        <f>INDEX(calculation!W21:$W$34,calculation!$D$5)</f>
+        <v>10508</v>
+      </c>
+      <c r="W19" s="49"/>
+      <c r="X19" s="56">
+        <f>INDEX(calculation!Z21:$Z$34,calculation!$D$5)</f>
+        <v>-3.4072523079851529E-2</v>
+      </c>
+      <c r="Y19" s="49">
+        <f>INDEX(calculation!Z21:$Z$34,calculation!$D$5)</f>
+        <v>-3.4072523079851529E-2</v>
+      </c>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="55">
+        <f>INDEX(calculation!AC21:$AC$34,calculation!$D$5)</f>
+        <v>-9.5165588123334607E-5</v>
+      </c>
+      <c r="AB19" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD19" s="39"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49">
+        <f>INDEX(calculation!M22:$M$34,calculation!$D$5)</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="49" t="str">
+        <f>INDEX(calculation!N22:$N$34,calculation!$D$5)</f>
+        <v>Right App</v>
+      </c>
+      <c r="F20" s="54">
+        <f>INDEX(calculation!O22:$O$34,calculation!$D$5)</f>
+        <v>3635</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="55">
+        <f>INDEX(calculation!X22:$X$34,calculation!$D$5)</f>
+        <v>0.55541292255027819</v>
+      </c>
+      <c r="I20" s="49">
+        <f>INDEX(calculation!X22:$X$34,calculation!$D$5)</f>
+        <v>0.55541292255027819</v>
+      </c>
+      <c r="J20" s="49"/>
+      <c r="K20" s="55">
+        <f>INDEX(calculation!AA22:$AA$34,calculation!$D$5)</f>
+        <v>-0.34702430846605198</v>
+      </c>
+      <c r="L20" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>▼</v>
+      </c>
+      <c r="M20" s="49"/>
+      <c r="N20" s="54">
+        <f>INDEX(calculation!P22:$P$34,calculation!$D$5)</f>
+        <v>96</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="56">
+        <f>INDEX(calculation!Y22:$Y$34,calculation!$D$5)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q20" s="49">
+        <f>INDEX(calculation!Y22:$Y$34,calculation!$D$5)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="55">
+        <f>INDEX(calculation!$AB22:AB$34,calculation!$D$5)</f>
+        <v>-0.51086956521739135</v>
+      </c>
+      <c r="T20" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▼</v>
+      </c>
+      <c r="U20" s="49"/>
+      <c r="V20" s="54">
+        <f>INDEX(calculation!W22:$W$34,calculation!$D$5)</f>
+        <v>1396</v>
+      </c>
+      <c r="W20" s="49"/>
+      <c r="X20" s="56">
+        <f>INDEX(calculation!Z22:$Z$34,calculation!$D$5)</f>
+        <v>0.29337539432176657</v>
+      </c>
+      <c r="Y20" s="49">
+        <f>INDEX(calculation!Z22:$Z$34,calculation!$D$5)</f>
+        <v>0.29337539432176657</v>
+      </c>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="55">
+        <f>INDEX(calculation!AC22:$AC$34,calculation!$D$5)</f>
+        <v>0.13538681948424069</v>
+      </c>
+      <c r="AB20" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>▲</v>
+      </c>
+      <c r="AD20" s="39"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="49">
+        <f>INDEX(calculation!M23:$M$34,calculation!$D$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E21" s="49" t="str">
+        <f>INDEX(calculation!N23:$N$34,calculation!$D$5)</f>
+        <v>Mirrrr</v>
+      </c>
+      <c r="F21" s="54">
+        <f>INDEX(calculation!O23:$O$34,calculation!$D$5)</f>
+        <v>15627</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="55">
+        <f>INDEX(calculation!X23:$X$34,calculation!$D$5)</f>
+        <v>1.758155889822231E-2</v>
+      </c>
+      <c r="I21" s="49">
+        <f>INDEX(calculation!X23:$X$34,calculation!$D$5)</f>
+        <v>1.758155889822231E-2</v>
+      </c>
+      <c r="J21" s="49"/>
+      <c r="K21" s="55">
+        <f>INDEX(calculation!AA23:$AA$34,calculation!$D$5)</f>
+        <v>4.9405494054940546E-2</v>
+      </c>
+      <c r="L21" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M21" s="49"/>
+      <c r="N21" s="54">
+        <f>INDEX(calculation!P23:$P$34,calculation!$D$5)</f>
+        <v>1996</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="56">
+        <f>INDEX(calculation!Y23:$Y$34,calculation!$D$5)</f>
+        <v>4.6121593291404611E-2</v>
+      </c>
+      <c r="Q21" s="49">
+        <f>INDEX(calculation!Y23:$Y$34,calculation!$D$5)</f>
+        <v>4.6121593291404611E-2</v>
+      </c>
+      <c r="R21" s="49"/>
+      <c r="S21" s="55">
+        <f>INDEX(calculation!$AB23:AB$34,calculation!$D$5)</f>
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="T21" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▲</v>
+      </c>
+      <c r="U21" s="49"/>
+      <c r="V21" s="54">
+        <f>INDEX(calculation!W23:$W$34,calculation!$D$5)</f>
+        <v>9527</v>
+      </c>
+      <c r="W21" s="49"/>
+      <c r="X21" s="56">
+        <f>INDEX(calculation!Z23:$Z$34,calculation!$D$5)</f>
+        <v>-3.1436817151102865E-2</v>
+      </c>
+      <c r="Y21" s="49">
+        <f>INDEX(calculation!Z23:$Z$34,calculation!$D$5)</f>
+        <v>-3.1436817151102865E-2</v>
+      </c>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="55">
+        <f>INDEX(calculation!AC23:$AC$34,calculation!$D$5)</f>
+        <v>1.8368846436443792E-2</v>
+      </c>
+      <c r="AB21" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD21" s="39"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="49">
+        <f>INDEX(calculation!M24:$M$34,calculation!$D$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E22" s="49" t="str">
+        <f>INDEX(calculation!N24:$N$34,calculation!$D$5)</f>
+        <v>Halotot</v>
+      </c>
+      <c r="F22" s="54">
+        <f>INDEX(calculation!O24:$O$34,calculation!$D$5)</f>
+        <v>7270</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="55">
+        <f>INDEX(calculation!X24:$X$34,calculation!$D$5)</f>
+        <v>2.1210844219693777E-2</v>
+      </c>
+      <c r="I22" s="49">
+        <f>INDEX(calculation!X24:$X$34,calculation!$D$5)</f>
+        <v>2.1210844219693777E-2</v>
+      </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="55">
+        <f>INDEX(calculation!AA24:$AA$34,calculation!$D$5)</f>
+        <v>-5.4484492875104774E-3</v>
+      </c>
+      <c r="L22" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M22" s="49"/>
+      <c r="N22" s="54">
+        <f>INDEX(calculation!P24:$P$34,calculation!$D$5)</f>
+        <v>150</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="56">
+        <f>INDEX(calculation!Y24:$Y$34,calculation!$D$5)</f>
+        <v>-0.57020057306590255</v>
+      </c>
+      <c r="Q22" s="49">
+        <f>INDEX(calculation!Y24:$Y$34,calculation!$D$5)</f>
+        <v>-0.57020057306590255</v>
+      </c>
+      <c r="R22" s="49"/>
+      <c r="S22" s="55">
+        <f>INDEX(calculation!$AB24:AB$34,calculation!$D$5)</f>
+        <v>1.9083333333333334</v>
+      </c>
+      <c r="T22" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>▲</v>
+      </c>
+      <c r="U22" s="49"/>
+      <c r="V22" s="54">
+        <f>INDEX(calculation!W24:$W$34,calculation!$D$5)</f>
+        <v>8630</v>
+      </c>
+      <c r="W22" s="49"/>
+      <c r="X22" s="56">
+        <f>INDEX(calculation!Z24:$Z$34,calculation!$D$5)</f>
+        <v>5.0234741784037557E-2</v>
+      </c>
+      <c r="Y22" s="49">
+        <f>INDEX(calculation!Z24:$Z$34,calculation!$D$5)</f>
+        <v>5.0234741784037557E-2</v>
+      </c>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="55">
+        <f>INDEX(calculation!AC24:$AC$34,calculation!$D$5)</f>
+        <v>-1.2746234067207415E-2</v>
+      </c>
+      <c r="AB22" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD22" s="39"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="AD23" s="39"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L13:L22">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"▲"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"▼"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T22 AB13:AB22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"▼"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"▲"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Year incorrect" error="Please input year as YYYY (4 digits)." promptTitle="Year" prompt="Please input year as YYYY" sqref="F5" xr:uid="{76D5357A-F6ED-47A4-89C2-A1873A3EBE47}">
       <formula1>4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3077" r:id="rId3" name="Scroll Bar 5">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>182880</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>28</xdr:col>
+                    <xdr:colOff>350520</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>533400</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="11" id="{16077C3D-7FA8-4F99-AB62-678431E3E644}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>calculation!$X$39</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>calculation!$X$40</xm:f>
+              </x14:cfvo>
+              <x14:fillColor rgb="FF638EC6"/>
+              <x14:negativeFillColor theme="0" tint="-0.14999847407452621"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I13:I22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="10" id="{8DA391B0-C0FC-4D0B-A543-64CBF360616E}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>calculation!$Y$39</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>calculation!$Y$40</xm:f>
+              </x14:cfvo>
+              <x14:fillColor rgb="FF638EC6"/>
+              <x14:negativeFillColor theme="0" tint="-0.14999847407452621"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q13:Q22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" priority="9" id="{560DC738-BD80-43C7-B130-60BAC6857B97}">
+            <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>calculation!$Z$39</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>calculation!$Z$40</xm:f>
+              </x14:cfvo>
+              <x14:fillColor rgb="FF638EC6"/>
+              <x14:negativeFillColor theme="0" tint="-0.14999847407452621"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y13:Y22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select the Current Month" prompt="Please select the current month." xr:uid="{7A17B168-C8CA-4004-AB24-5BCBE0F5B8D2}">
@@ -1748,11 +3604,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22A62BC-B04B-4E41-A4C8-A4B0D8E9187D}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1760,35 +3617,260 @@
     <col min="7" max="7" width="19.796875" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
+    <col min="24" max="24" width="10.69921875" customWidth="1"/>
+    <col min="27" max="27" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="M2" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="O8" t="str">
+        <f>O9&amp;O10&amp;O11&amp;O12</f>
+        <v>2017JanActualRevenue</v>
+      </c>
+      <c r="P8" t="str">
+        <f>P9&amp;P10&amp;P11&amp;P12</f>
+        <v>2017JanActualProfit</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ref="P8:W8" si="0">Q9&amp;Q10&amp;Q11&amp;Q12</f>
+        <v>2017JanActualCash</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JanActualRevenue</v>
+      </c>
+      <c r="S8" t="str">
+        <f>S9&amp;S10&amp;S11&amp;S12</f>
+        <v>2016JanActualProfit</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JanActualCash</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetRevenue</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetProfit</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetCash</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="O9" s="24">
+        <f>CY</f>
+        <v>2017</v>
+      </c>
+      <c r="P9" s="24">
+        <f>CY</f>
+        <v>2017</v>
+      </c>
+      <c r="Q9" s="24">
+        <f>CY</f>
+        <v>2017</v>
+      </c>
+      <c r="R9" s="24">
+        <f>CY-1</f>
+        <v>2016</v>
+      </c>
+      <c r="S9" s="24">
+        <f>CY-1</f>
+        <v>2016</v>
+      </c>
+      <c r="T9" s="24">
+        <f>CY-1</f>
+        <v>2016</v>
+      </c>
+      <c r="U9" s="24">
+        <f>CY</f>
+        <v>2017</v>
+      </c>
+      <c r="V9" s="24">
+        <f>CY</f>
+        <v>2017</v>
+      </c>
+      <c r="W9" s="24">
+        <f>CY</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="O10" s="24" t="str">
+        <f t="shared" ref="O10:W10" si="1">CM</f>
+        <v>Jan</v>
+      </c>
+      <c r="P10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="Q10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="R10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="S10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="T10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="U10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="V10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="W10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="O11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="O12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="G13" s="41" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="G13" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="O13" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="G14" s="13" t="str">
         <f t="array" ref="G14:I14">TRANSPOSE(C15:C17)</f>
         <v>Productivity Apps</v>
@@ -1799,8 +3881,59 @@
       <c r="I14" s="13" t="str">
         <v>Utility Apps</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y14" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1819,8 +3952,76 @@
       <c r="I15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f>IF(N15&lt;&gt;"",ROWS($N$15:N15),"")</f>
+        <v>1</v>
+      </c>
+      <c r="N15" t="str">
+        <f>INDEX(G15:I15,$D$4)&amp;""</f>
+        <v>WenCaL</v>
+      </c>
+      <c r="O15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>14432</v>
+      </c>
+      <c r="P15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>240</v>
+      </c>
+      <c r="Q15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>11099</v>
+      </c>
+      <c r="R15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>13699</v>
+      </c>
+      <c r="S15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>210</v>
+      </c>
+      <c r="T15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>12058</v>
+      </c>
+      <c r="U15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>15113</v>
+      </c>
+      <c r="V15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>363</v>
+      </c>
+      <c r="W15">
+        <f>IF($N15&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N15,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>11468</v>
+      </c>
+      <c r="X15" s="43">
+        <f t="shared" ref="X15:X34" si="2">IF($N15&lt;&gt;"",(O15-R15)/R15,"")</f>
+        <v>5.3507555296007009E-2</v>
+      </c>
+      <c r="Y15" s="43">
+        <f t="shared" ref="Y15:Y34" si="3">IF($N15&lt;&gt;"",(P15-S15)/S15,"")</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z15" s="43">
+        <f t="shared" ref="Z15:Z34" si="4">IF($N15&lt;&gt;"",(Q15-T15)/T15,"")</f>
+        <v>-7.9532260739757832E-2</v>
+      </c>
+      <c r="AA15" s="43">
+        <f t="shared" ref="AA15:AA34" si="5">IF($N15&lt;&gt;"",(R15-U15)/U15,"")</f>
+        <v>-9.3561834182491893E-2</v>
+      </c>
+      <c r="AB15" s="43">
+        <f t="shared" ref="AB15:AB34" si="6">IF($N15&lt;&gt;"",(S15-V15)/V15,"")</f>
+        <v>-0.42148760330578511</v>
+      </c>
+      <c r="AC15" s="43">
+        <f>IF($N15&lt;&gt;"",(T15-W15)/W15,"")</f>
+        <v>5.1447506103941401E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -1839,8 +4040,76 @@
       <c r="I16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f>IF(N16&lt;&gt;"",ROWS($N$15:N16),"")</f>
+        <v>2</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ref="N16:N34" si="7">INDEX(G16:I16,$D$4)&amp;""</f>
+        <v>Blend</v>
+      </c>
+      <c r="O16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>17990</v>
+      </c>
+      <c r="P16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>1166</v>
+      </c>
+      <c r="Q16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>7137</v>
+      </c>
+      <c r="R16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>16395</v>
+      </c>
+      <c r="S16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>1003</v>
+      </c>
+      <c r="T16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>7423</v>
+      </c>
+      <c r="U16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>18181</v>
+      </c>
+      <c r="V16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>1223</v>
+      </c>
+      <c r="W16">
+        <f>IF($N16&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N16,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>8196</v>
+      </c>
+      <c r="X16" s="43">
+        <f t="shared" si="2"/>
+        <v>9.728575785300396E-2</v>
+      </c>
+      <c r="Y16" s="43">
+        <f t="shared" si="3"/>
+        <v>0.16251246261216351</v>
+      </c>
+      <c r="Z16" s="43">
+        <f t="shared" si="4"/>
+        <v>-3.8528896672504379E-2</v>
+      </c>
+      <c r="AA16" s="43">
+        <f t="shared" si="5"/>
+        <v>-9.82344205489247E-2</v>
+      </c>
+      <c r="AB16" s="43">
+        <f t="shared" si="6"/>
+        <v>-0.17988552739165986</v>
+      </c>
+      <c r="AC16" s="43">
+        <f t="shared" ref="AC15:AC34" si="8">IF($N16&lt;&gt;"",(T16-W16)/W16,"")</f>
+        <v>-9.4314299658369932E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -1859,8 +4128,76 @@
       <c r="I17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f>IF(N17&lt;&gt;"",ROWS($N$15:N17),"")</f>
+        <v>3</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="7"/>
+        <v>Voltage</v>
+      </c>
+      <c r="O17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>15117</v>
+      </c>
+      <c r="P17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>1613</v>
+      </c>
+      <c r="Q17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>5828</v>
+      </c>
+      <c r="R17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>14138</v>
+      </c>
+      <c r="S17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>1200</v>
+      </c>
+      <c r="T17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>6212</v>
+      </c>
+      <c r="U17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>13455</v>
+      </c>
+      <c r="V17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>1400</v>
+      </c>
+      <c r="W17">
+        <f>IF($N17&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N17,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>5810</v>
+      </c>
+      <c r="X17" s="43">
+        <f t="shared" si="2"/>
+        <v>6.924600367803084E-2</v>
+      </c>
+      <c r="Y17" s="43">
+        <f t="shared" si="3"/>
+        <v>0.34416666666666668</v>
+      </c>
+      <c r="Z17" s="43">
+        <f t="shared" si="4"/>
+        <v>-6.1815840309079204E-2</v>
+      </c>
+      <c r="AA17" s="43">
+        <f t="shared" si="5"/>
+        <v>5.0761798587885543E-2</v>
+      </c>
+      <c r="AB17" s="43">
+        <f t="shared" si="6"/>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="AC17" s="43">
+        <f t="shared" si="8"/>
+        <v>6.9191049913941483E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -1873,8 +4210,76 @@
       <c r="I18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>IF(N18&lt;&gt;"",ROWS($N$15:N18),"")</f>
+        <v>4</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="7"/>
+        <v>Inkly</v>
+      </c>
+      <c r="O18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>11154</v>
+      </c>
+      <c r="P18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>731</v>
+      </c>
+      <c r="Q18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>8008</v>
+      </c>
+      <c r="R18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>11502</v>
+      </c>
+      <c r="S18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>499</v>
+      </c>
+      <c r="T18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>8953</v>
+      </c>
+      <c r="U18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>12031</v>
+      </c>
+      <c r="V18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>641</v>
+      </c>
+      <c r="W18">
+        <f>IF($N18&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N18,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>8424</v>
+      </c>
+      <c r="X18" s="43">
+        <f t="shared" si="2"/>
+        <v>-3.0255607720396451E-2</v>
+      </c>
+      <c r="Y18" s="43">
+        <f t="shared" si="3"/>
+        <v>0.4649298597194389</v>
+      </c>
+      <c r="Z18" s="43">
+        <f t="shared" si="4"/>
+        <v>-0.1055512118842846</v>
+      </c>
+      <c r="AA18" s="43">
+        <f t="shared" si="5"/>
+        <v>-4.3969744825866512E-2</v>
+      </c>
+      <c r="AB18" s="43">
+        <f t="shared" si="6"/>
+        <v>-0.22152886115444617</v>
+      </c>
+      <c r="AC18" s="43">
+        <f t="shared" si="8"/>
+        <v>6.279677113010447E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -1887,8 +4292,76 @@
       <c r="I19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f>IF(N19&lt;&gt;"",ROWS($N$15:N19),"")</f>
+        <v>5</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="7"/>
+        <v>Sleops</v>
+      </c>
+      <c r="O19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>11022</v>
+      </c>
+      <c r="P19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>550</v>
+      </c>
+      <c r="Q19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>9000</v>
+      </c>
+      <c r="R19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>14644</v>
+      </c>
+      <c r="S19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>780</v>
+      </c>
+      <c r="T19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>8670</v>
+      </c>
+      <c r="U19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>13112</v>
+      </c>
+      <c r="V19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>474</v>
+      </c>
+      <c r="W19">
+        <f>IF($N19&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N19,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>8193</v>
+      </c>
+      <c r="X19" s="43">
+        <f t="shared" si="2"/>
+        <v>-0.24733679322589455</v>
+      </c>
+      <c r="Y19" s="43">
+        <f t="shared" si="3"/>
+        <v>-0.29487179487179488</v>
+      </c>
+      <c r="Z19" s="43">
+        <f t="shared" si="4"/>
+        <v>3.8062283737024222E-2</v>
+      </c>
+      <c r="AA19" s="43">
+        <f t="shared" si="5"/>
+        <v>0.11683953630262355</v>
+      </c>
+      <c r="AB19" s="43">
+        <f t="shared" si="6"/>
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="AC19" s="43">
+        <f t="shared" si="8"/>
+        <v>5.8220432076162579E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1901,8 +4374,76 @@
       <c r="I20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f>IF(N20&lt;&gt;"",ROWS($N$15:N20),"")</f>
+        <v>6</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="7"/>
+        <v>Kind Ape</v>
+      </c>
+      <c r="O20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>8905</v>
+      </c>
+      <c r="P20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>469</v>
+      </c>
+      <c r="Q20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>6026</v>
+      </c>
+      <c r="R20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>8796</v>
+      </c>
+      <c r="S20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>316</v>
+      </c>
+      <c r="T20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>6251</v>
+      </c>
+      <c r="U20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>9096</v>
+      </c>
+      <c r="V20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>620</v>
+      </c>
+      <c r="W20">
+        <f>IF($N20&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N20,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>5804</v>
+      </c>
+      <c r="X20" s="43">
+        <f t="shared" si="2"/>
+        <v>1.2391996361982719E-2</v>
+      </c>
+      <c r="Y20" s="43">
+        <f t="shared" si="3"/>
+        <v>0.48417721518987344</v>
+      </c>
+      <c r="Z20" s="43">
+        <f t="shared" si="4"/>
+        <v>-3.5994240921452571E-2</v>
+      </c>
+      <c r="AA20" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.2981530343007916E-2</v>
+      </c>
+      <c r="AB20" s="43">
+        <f t="shared" si="6"/>
+        <v>-0.49032258064516127</v>
+      </c>
+      <c r="AC20" s="43">
+        <f t="shared" si="8"/>
+        <v>7.701585113714679E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -1915,8 +4456,76 @@
       <c r="I21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>IF(N21&lt;&gt;"",ROWS($N$15:N21),"")</f>
+        <v>7</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="7"/>
+        <v>Pet Feed</v>
+      </c>
+      <c r="O21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>16735</v>
+      </c>
+      <c r="P21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>800</v>
+      </c>
+      <c r="Q21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>10149</v>
+      </c>
+      <c r="R21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>17503</v>
+      </c>
+      <c r="S21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>1083</v>
+      </c>
+      <c r="T21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>10507</v>
+      </c>
+      <c r="U21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>18207</v>
+      </c>
+      <c r="V21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>1176</v>
+      </c>
+      <c r="W21">
+        <f>IF($N21&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N21,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>10508</v>
+      </c>
+      <c r="X21" s="43">
+        <f t="shared" si="2"/>
+        <v>-4.3878192309889735E-2</v>
+      </c>
+      <c r="Y21" s="43">
+        <f t="shared" si="3"/>
+        <v>-0.26131117266851339</v>
+      </c>
+      <c r="Z21" s="43">
+        <f t="shared" si="4"/>
+        <v>-3.4072523079851529E-2</v>
+      </c>
+      <c r="AA21" s="43">
+        <f t="shared" si="5"/>
+        <v>-3.8666446970945241E-2</v>
+      </c>
+      <c r="AB21" s="43">
+        <f t="shared" si="6"/>
+        <v>-7.9081632653061229E-2</v>
+      </c>
+      <c r="AC21" s="43">
+        <f t="shared" si="8"/>
+        <v>-9.5165588123334607E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1929,8 +4538,76 @@
       <c r="I22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>IF(N22&lt;&gt;"",ROWS($N$15:N22),"")</f>
+        <v>8</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v>Right App</v>
+      </c>
+      <c r="O22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>3635</v>
+      </c>
+      <c r="P22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>96</v>
+      </c>
+      <c r="Q22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>2050</v>
+      </c>
+      <c r="R22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>2337</v>
+      </c>
+      <c r="S22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>90</v>
+      </c>
+      <c r="T22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>1585</v>
+      </c>
+      <c r="U22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>3579</v>
+      </c>
+      <c r="V22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>184</v>
+      </c>
+      <c r="W22">
+        <f>IF($N22&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N22,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>1396</v>
+      </c>
+      <c r="X22" s="43">
+        <f t="shared" si="2"/>
+        <v>0.55541292255027819</v>
+      </c>
+      <c r="Y22" s="43">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Z22" s="43">
+        <f t="shared" si="4"/>
+        <v>0.29337539432176657</v>
+      </c>
+      <c r="AA22" s="43">
+        <f t="shared" si="5"/>
+        <v>-0.34702430846605198</v>
+      </c>
+      <c r="AB22" s="43">
+        <f t="shared" si="6"/>
+        <v>-0.51086956521739135</v>
+      </c>
+      <c r="AC22" s="43">
+        <f t="shared" si="8"/>
+        <v>0.13538681948424069</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -1943,8 +4620,76 @@
       <c r="I23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f>IF(N23&lt;&gt;"",ROWS($N$15:N23),"")</f>
+        <v>9</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="7"/>
+        <v>Mirrrr</v>
+      </c>
+      <c r="O23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>15627</v>
+      </c>
+      <c r="P23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>1996</v>
+      </c>
+      <c r="Q23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>9397</v>
+      </c>
+      <c r="R23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>15357</v>
+      </c>
+      <c r="S23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>1908</v>
+      </c>
+      <c r="T23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>9702</v>
+      </c>
+      <c r="U23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>14634</v>
+      </c>
+      <c r="V23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>1584</v>
+      </c>
+      <c r="W23">
+        <f>IF($N23&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N23,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>9527</v>
+      </c>
+      <c r="X23" s="43">
+        <f t="shared" si="2"/>
+        <v>1.758155889822231E-2</v>
+      </c>
+      <c r="Y23" s="43">
+        <f t="shared" si="3"/>
+        <v>4.6121593291404611E-2</v>
+      </c>
+      <c r="Z23" s="43">
+        <f t="shared" si="4"/>
+        <v>-3.1436817151102865E-2</v>
+      </c>
+      <c r="AA23" s="43">
+        <f t="shared" si="5"/>
+        <v>4.9405494054940546E-2</v>
+      </c>
+      <c r="AB23" s="43">
+        <f t="shared" si="6"/>
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="AC23" s="43">
+        <f t="shared" si="8"/>
+        <v>1.8368846436443792E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -1957,8 +4702,76 @@
       <c r="I24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f>IF(N24&lt;&gt;"",ROWS($N$15:N24),"")</f>
+        <v>10</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v>Halotot</v>
+      </c>
+      <c r="O24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>7270</v>
+      </c>
+      <c r="P24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>150</v>
+      </c>
+      <c r="Q24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>8948</v>
+      </c>
+      <c r="R24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>7119</v>
+      </c>
+      <c r="S24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>349</v>
+      </c>
+      <c r="T24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>8520</v>
+      </c>
+      <c r="U24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>7158</v>
+      </c>
+      <c r="V24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>120</v>
+      </c>
+      <c r="W24">
+        <f>IF($N24&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N24,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>8630</v>
+      </c>
+      <c r="X24" s="43">
+        <f t="shared" si="2"/>
+        <v>2.1210844219693777E-2</v>
+      </c>
+      <c r="Y24" s="43">
+        <f t="shared" si="3"/>
+        <v>-0.57020057306590255</v>
+      </c>
+      <c r="Z24" s="43">
+        <f t="shared" si="4"/>
+        <v>5.0234741784037557E-2</v>
+      </c>
+      <c r="AA24" s="43">
+        <f t="shared" si="5"/>
+        <v>-5.4484492875104774E-3</v>
+      </c>
+      <c r="AB24" s="43">
+        <f t="shared" si="6"/>
+        <v>1.9083333333333334</v>
+      </c>
+      <c r="AC24" s="43">
+        <f t="shared" si="8"/>
+        <v>-1.2746234067207415E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +4784,76 @@
       <c r="I25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f>IF(N25&lt;&gt;"",ROWS($N$15:N25),"")</f>
+        <v>11</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="7"/>
+        <v>Flowrrr</v>
+      </c>
+      <c r="O25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>5955</v>
+      </c>
+      <c r="P25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>260</v>
+      </c>
+      <c r="Q25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>5931</v>
+      </c>
+      <c r="R25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>5612</v>
+      </c>
+      <c r="S25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>233</v>
+      </c>
+      <c r="T25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>5128</v>
+      </c>
+      <c r="U25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>5977</v>
+      </c>
+      <c r="V25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>210</v>
+      </c>
+      <c r="W25">
+        <f>IF($N25&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N25,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>4722</v>
+      </c>
+      <c r="X25" s="43">
+        <f t="shared" si="2"/>
+        <v>6.1119030648610122E-2</v>
+      </c>
+      <c r="Y25" s="43">
+        <f t="shared" si="3"/>
+        <v>0.11587982832618025</v>
+      </c>
+      <c r="Z25" s="43">
+        <f t="shared" si="4"/>
+        <v>0.15659126365054601</v>
+      </c>
+      <c r="AA25" s="43">
+        <f t="shared" si="5"/>
+        <v>-6.1067425129663712E-2</v>
+      </c>
+      <c r="AB25" s="43">
+        <f t="shared" si="6"/>
+        <v>0.10952380952380952</v>
+      </c>
+      <c r="AC25" s="43">
+        <f t="shared" si="8"/>
+        <v>8.5980516730199075E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -1985,8 +4866,76 @@
       <c r="I26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f>IF(N26&lt;&gt;"",ROWS($N$15:N26),"")</f>
+        <v>12</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="7"/>
+        <v>Silvrr</v>
+      </c>
+      <c r="O26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>7666</v>
+      </c>
+      <c r="P26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>274</v>
+      </c>
+      <c r="Q26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>6624</v>
+      </c>
+      <c r="R26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>5060</v>
+      </c>
+      <c r="S26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>369</v>
+      </c>
+      <c r="T26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>5174</v>
+      </c>
+      <c r="U26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>7099</v>
+      </c>
+      <c r="V26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>230</v>
+      </c>
+      <c r="W26">
+        <f>IF($N26&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N26,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>6253</v>
+      </c>
+      <c r="X26" s="43">
+        <f t="shared" si="2"/>
+        <v>0.51501976284584983</v>
+      </c>
+      <c r="Y26" s="43">
+        <f t="shared" si="3"/>
+        <v>-0.25745257452574527</v>
+      </c>
+      <c r="Z26" s="43">
+        <f t="shared" si="4"/>
+        <v>0.28024739080015459</v>
+      </c>
+      <c r="AA26" s="43">
+        <f t="shared" si="5"/>
+        <v>-0.28722355261304411</v>
+      </c>
+      <c r="AB26" s="43">
+        <f t="shared" si="6"/>
+        <v>0.60434782608695647</v>
+      </c>
+      <c r="AC26" s="43">
+        <f t="shared" si="8"/>
+        <v>-0.17255717255717257</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>62</v>
       </c>
@@ -1996,8 +4945,76 @@
       <c r="I27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f>IF(N27&lt;&gt;"",ROWS($N$15:N27),"")</f>
+        <v>13</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="7"/>
+        <v>Dasring</v>
+      </c>
+      <c r="O27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>10857</v>
+      </c>
+      <c r="P27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>281</v>
+      </c>
+      <c r="Q27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>4396</v>
+      </c>
+      <c r="R27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>10547</v>
+      </c>
+      <c r="S27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>281</v>
+      </c>
+      <c r="T27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>4979</v>
+      </c>
+      <c r="U27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>10799</v>
+      </c>
+      <c r="V27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>333</v>
+      </c>
+      <c r="W27">
+        <f>IF($N27&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N27,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>4779</v>
+      </c>
+      <c r="X27" s="43">
+        <f t="shared" si="2"/>
+        <v>2.9392244240068265E-2</v>
+      </c>
+      <c r="Y27" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="43">
+        <f t="shared" si="4"/>
+        <v>-0.1170917854990962</v>
+      </c>
+      <c r="AA27" s="43">
+        <f t="shared" si="5"/>
+        <v>-2.3335494027224742E-2</v>
+      </c>
+      <c r="AB27" s="43">
+        <f t="shared" si="6"/>
+        <v>-0.15615615615615616</v>
+      </c>
+      <c r="AC27" s="43">
+        <f t="shared" si="8"/>
+        <v>4.184975936388366E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>63</v>
       </c>
@@ -2007,8 +5024,76 @@
       <c r="I28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f>IF(N28&lt;&gt;"",ROWS($N$15:N28),"")</f>
+        <v>14</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="7"/>
+        <v>Rehire</v>
+      </c>
+      <c r="O28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>9873</v>
+      </c>
+      <c r="P28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>370</v>
+      </c>
+      <c r="Q28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>7076</v>
+      </c>
+      <c r="R28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>11069</v>
+      </c>
+      <c r="S28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>652</v>
+      </c>
+      <c r="T28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>6853</v>
+      </c>
+      <c r="U28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>10500</v>
+      </c>
+      <c r="V28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>637</v>
+      </c>
+      <c r="W28">
+        <f>IF($N28&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N28,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>8490</v>
+      </c>
+      <c r="X28" s="43">
+        <f t="shared" si="2"/>
+        <v>-0.1080495076339326</v>
+      </c>
+      <c r="Y28" s="43">
+        <f t="shared" si="3"/>
+        <v>-0.43251533742331288</v>
+      </c>
+      <c r="Z28" s="43">
+        <f t="shared" si="4"/>
+        <v>3.2540493214650516E-2</v>
+      </c>
+      <c r="AA28" s="43">
+        <f t="shared" si="5"/>
+        <v>5.4190476190476192E-2</v>
+      </c>
+      <c r="AB28" s="43">
+        <f t="shared" si="6"/>
+        <v>2.3547880690737835E-2</v>
+      </c>
+      <c r="AC28" s="43">
+        <f t="shared" si="8"/>
+        <v>-0.1928150765606596</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>64</v>
       </c>
@@ -2017,6 +5102,552 @@
       </c>
       <c r="I29" t="s">
         <v>99</v>
+      </c>
+      <c r="M29">
+        <f>IF(N29&lt;&gt;"",ROWS($N$15:N29),"")</f>
+        <v>15</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="7"/>
+        <v>Didactic</v>
+      </c>
+      <c r="O29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>6405</v>
+      </c>
+      <c r="P29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>363</v>
+      </c>
+      <c r="Q29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>1389</v>
+      </c>
+      <c r="R29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>5995</v>
+      </c>
+      <c r="S29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>268</v>
+      </c>
+      <c r="T29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>1708</v>
+      </c>
+      <c r="U29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>5819</v>
+      </c>
+      <c r="V29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>248</v>
+      </c>
+      <c r="W29">
+        <f>IF($N29&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N29,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>2226</v>
+      </c>
+      <c r="X29" s="43">
+        <f t="shared" si="2"/>
+        <v>6.8390325271059219E-2</v>
+      </c>
+      <c r="Y29" s="43">
+        <f t="shared" si="3"/>
+        <v>0.35447761194029853</v>
+      </c>
+      <c r="Z29" s="43">
+        <f t="shared" si="4"/>
+        <v>-0.18676814988290399</v>
+      </c>
+      <c r="AA29" s="43">
+        <f t="shared" si="5"/>
+        <v>3.0245746691871456E-2</v>
+      </c>
+      <c r="AB29" s="43">
+        <f t="shared" si="6"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="AC29" s="43">
+        <f t="shared" si="8"/>
+        <v>-0.23270440251572327</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f>IF(N30&lt;&gt;"",ROWS($N$15:N30),"")</f>
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <f>IF($N30&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N30,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="X30" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y30" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z30" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA30" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB30" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC30" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M31" t="str">
+        <f>IF(N31&lt;&gt;"",ROWS($N$15:N31),"")</f>
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <f>IF($N31&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N31,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="X31" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y31" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z31" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA31" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB31" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC31" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M32" t="str">
+        <f>IF(N32&lt;&gt;"",ROWS($N$15:N32),"")</f>
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <f>IF($N32&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N32,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="X32" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y32" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z32" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA32" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB32" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC32" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="13:29" x14ac:dyDescent="0.25">
+      <c r="M33" t="str">
+        <f>IF(N33&lt;&gt;"",ROWS($N$15:N33),"")</f>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="S33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <f>IF($N33&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N33,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="X33" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y33" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z33" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA33" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB33" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC33" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="13:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34" t="str">
+        <f>IF(N34&lt;&gt;"",ROWS($N$15:N34),"")</f>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="P34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="R34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="S34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="T34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="U34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="V34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="W34" s="6" t="str">
+        <f>IF($N34&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N34,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v/>
+      </c>
+      <c r="X34" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y34" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z34" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA34" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB34" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC34" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="13:29" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+    </row>
+    <row r="36" spans="13:29" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f>INDEX(C15:C17,D4)</f>
+        <v>Productivity Apps</v>
+      </c>
+      <c r="O36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(O$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>162643</v>
+      </c>
+      <c r="P36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(P$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>9359</v>
+      </c>
+      <c r="Q36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$B$9:$D$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(Q$8,datasets!$B$4:$D$4,0)),"")</f>
+        <v>103058</v>
+      </c>
+      <c r="R36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(R$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>159773</v>
+      </c>
+      <c r="S36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(S$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>9241</v>
+      </c>
+      <c r="T36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$E$9:$G$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(T$8,datasets!$E$4:$G$4,0)),"")</f>
+        <v>103723</v>
+      </c>
+      <c r="U36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(U$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>164760</v>
+      </c>
+      <c r="V36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(V$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>9443</v>
+      </c>
+      <c r="W36">
+        <f>IF($N36&lt;&gt;"",INDEX(datasets!$H$9:$J$51,MATCH($N36,datasets!$A$9:$A$51,0),MATCH(W$8,datasets!$H$4:$J$4,0)),"")</f>
+        <v>104426</v>
+      </c>
+      <c r="X36" s="43">
+        <f t="shared" ref="X36" si="9">IF($N36&lt;&gt;"",(O36-R36)/R36,"")</f>
+        <v>1.7962984984947396E-2</v>
+      </c>
+      <c r="Y36" s="43">
+        <f t="shared" ref="Y36" si="10">IF($N36&lt;&gt;"",(P36-S36)/S36,"")</f>
+        <v>1.2769180824586083E-2</v>
+      </c>
+      <c r="Z36" s="43">
+        <f t="shared" ref="Z36" si="11">IF($N36&lt;&gt;"",(Q36-T36)/T36,"")</f>
+        <v>-6.4113070389402544E-3</v>
+      </c>
+      <c r="AA36" s="43">
+        <f t="shared" ref="AA36" si="12">IF($N36&lt;&gt;"",(R36-U36)/U36,"")</f>
+        <v>-3.0268268997329449E-2</v>
+      </c>
+      <c r="AB36" s="43">
+        <f t="shared" ref="AB36" si="13">IF($N36&lt;&gt;"",(S36-V36)/V36,"")</f>
+        <v>-2.139150693635497E-2</v>
+      </c>
+      <c r="AC36" s="43">
+        <f t="shared" ref="AC36" si="14">IF($N36&lt;&gt;"",(T36-W36)/W36,"")</f>
+        <v>-6.732039913431521E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="13:29" x14ac:dyDescent="0.25">
+      <c r="W38" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+    </row>
+    <row r="39" spans="13:29" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>110</v>
+      </c>
+      <c r="X39" s="45">
+        <f>MIN(X15:X29)</f>
+        <v>-0.24733679322589455</v>
+      </c>
+      <c r="Y39" s="45">
+        <f t="shared" ref="Y39:Z39" si="15">MIN(Y15:Y29)</f>
+        <v>-0.57020057306590255</v>
+      </c>
+      <c r="Z39" s="45">
+        <f t="shared" si="15"/>
+        <v>-0.18676814988290399</v>
+      </c>
+    </row>
+    <row r="40" spans="13:29" x14ac:dyDescent="0.25">
+      <c r="W40" t="s">
+        <v>111</v>
+      </c>
+      <c r="X40" s="45">
+        <f>MAX(X15:X29)</f>
+        <v>0.55541292255027819</v>
+      </c>
+      <c r="Y40" s="45">
+        <f t="shared" ref="Y40:Z40" si="16">MAX(Y15:Y29)</f>
+        <v>0.48417721518987344</v>
+      </c>
+      <c r="Z40" s="45">
+        <f t="shared" si="16"/>
+        <v>0.29337539432176657</v>
       </c>
     </row>
   </sheetData>
@@ -2029,8 +5660,9 @@
   <dimension ref="B7:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2152,6 +5784,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="4"/>
+      <c r="P12" s="41"/>
       <c r="U12" t="s">
         <v>29</v>
       </c>
@@ -2237,13 +5870,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0FA756-6ACB-4A3D-9087-4C4EE2C9086F}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -2252,11 +5887,11 @@
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="36">
         <f>CY</f>
         <v>2017</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="36">
         <f>A2-1</f>
         <v>2016</v>
       </c>
@@ -2321,646 +5956,787 @@
       <c r="AT3" s="23"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
+      <c r="B4" t="str">
+        <f>B5&amp;B6&amp;B7&amp;B8</f>
+        <v>2017JanActualRevenue</v>
+      </c>
+      <c r="C4" t="str">
+        <f>C5&amp;C6&amp;C7&amp;C8</f>
+        <v>2017JanActualProfit</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="C4:AT4" si="0">D5&amp;D6&amp;D7&amp;D8</f>
+        <v>2017JanActualCash</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JanActualRevenue</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JanActualProfit</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JanActualCash</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetRevenue</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetProfit</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetCash</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanActualProfit</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017FebActualProfit</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017MarActualProfit</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017AprActualProfit</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017MayActualProfit</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JunActualProfit</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JulActualProfit</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017AugActualProfit</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017SepActualProfit</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017OctActualProfit</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017NovActualProfit</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017DecActualProfit</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JanActualProfit</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016FebActualProfit</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016MarActualProfit</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016AprActualProfit</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016MayActualProfit</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JunActualProfit</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016JulActualProfit</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016AugActualProfit</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016SepActualProfit</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016OctActualProfit</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016NovActualProfit</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="0"/>
+        <v>2016DecActualProfit</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JanBudgetProfit</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017FebBudgetProfit</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017MarBudgetProfit</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017AprBudgetProfit</v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017MayBudgetProfit</v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JunBudgetProfit</v>
+      </c>
+      <c r="AO4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017JulBudgetProfit</v>
+      </c>
+      <c r="AP4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017AugBudgetProfit</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017SepBudgetProfit</v>
+      </c>
+      <c r="AR4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017OctBudgetProfit</v>
+      </c>
+      <c r="AS4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017NovBudgetProfit</v>
+      </c>
+      <c r="AT4" t="str">
+        <f t="shared" si="0"/>
+        <v>2017DecBudgetProfit</v>
+      </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
-        <f t="shared" ref="B5:D5" si="0">$A$2</f>
+      <c r="B5" s="24">
+        <f t="shared" ref="B5:D5" si="1">$A$2</f>
         <v>2017</v>
       </c>
-      <c r="C5" s="27">
-        <f t="shared" si="0"/>
+      <c r="C5" s="24">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="D5" s="28">
-        <f t="shared" si="0"/>
+      <c r="D5" s="25">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="E5" s="27">
-        <f t="shared" ref="E5:G5" si="1">$B$2</f>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:G5" si="2">$B$2</f>
         <v>2016</v>
       </c>
-      <c r="F5" s="27">
-        <f t="shared" si="1"/>
+      <c r="F5" s="24">
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="G5" s="28">
-        <f t="shared" si="1"/>
+      <c r="G5" s="25">
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="H5" s="27">
-        <f t="shared" ref="H5:V5" si="2">$A$2</f>
+      <c r="H5" s="24">
+        <f t="shared" ref="H5:V5" si="3">$A$2</f>
         <v>2017</v>
       </c>
-      <c r="I5" s="27">
-        <f t="shared" si="2"/>
+      <c r="I5" s="24">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="J5" s="28">
-        <f t="shared" si="2"/>
+      <c r="J5" s="25">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="K5" s="29">
-        <f t="shared" si="2"/>
+      <c r="K5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="26">
         <f>$A$2</f>
         <v>2017</v>
       </c>
-      <c r="M5" s="29">
-        <f t="shared" si="2"/>
+      <c r="M5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="N5" s="29">
-        <f t="shared" si="2"/>
+      <c r="N5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="O5" s="29">
-        <f t="shared" si="2"/>
+      <c r="O5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="P5" s="29">
-        <f t="shared" si="2"/>
+      <c r="P5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="Q5" s="29">
-        <f t="shared" si="2"/>
+      <c r="Q5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="R5" s="29">
-        <f t="shared" si="2"/>
+      <c r="R5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="S5" s="29">
-        <f t="shared" si="2"/>
+      <c r="S5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="T5" s="29">
-        <f t="shared" si="2"/>
+      <c r="T5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="U5" s="29">
-        <f t="shared" si="2"/>
+      <c r="U5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="V5" s="29">
-        <f t="shared" si="2"/>
+      <c r="V5" s="26">
+        <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="W5" s="30">
-        <f t="shared" ref="W5:AH5" si="3">$B$2</f>
+      <c r="W5" s="27">
+        <f t="shared" ref="W5:AH5" si="4">$B$2</f>
         <v>2016</v>
       </c>
-      <c r="X5" s="29">
-        <f t="shared" si="3"/>
+      <c r="X5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="Y5" s="29">
-        <f t="shared" si="3"/>
+      <c r="Y5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="Z5" s="29">
-        <f t="shared" si="3"/>
+      <c r="Z5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AA5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AA5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AB5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AB5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AC5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AC5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AD5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AD5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AE5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AE5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AF5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AF5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AG5" s="29">
-        <f t="shared" si="3"/>
+      <c r="AG5" s="26">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AH5" s="31">
-        <f t="shared" si="3"/>
+      <c r="AH5" s="28">
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="AI5" s="29">
-        <f t="shared" ref="AI5:AT5" si="4">$A$2</f>
+      <c r="AI5" s="26">
+        <f t="shared" ref="AI5:AT5" si="5">$A$2</f>
         <v>2017</v>
       </c>
-      <c r="AJ5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AJ5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AK5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AK5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AL5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AL5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AM5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AM5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AN5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AN5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AO5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AO5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AP5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AP5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AQ5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AQ5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AR5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AR5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AS5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AS5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="AT5" s="29">
-        <f t="shared" si="4"/>
+      <c r="AT5" s="26">
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="str">
-        <f>CM</f>
+      <c r="B6" s="24" t="str">
+        <f t="shared" ref="B6:J6" si="6">CM</f>
         <v>Jan</v>
       </c>
-      <c r="C6" s="27" t="str">
-        <f>CM</f>
+      <c r="C6" s="24" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="D6" s="27" t="str">
-        <f>CM</f>
+      <c r="D6" s="24" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="E6" s="27" t="str">
-        <f>CM</f>
+      <c r="E6" s="24" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="F6" s="27" t="str">
-        <f>CM</f>
+      <c r="F6" s="24" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="G6" s="28" t="str">
-        <f>CM</f>
+      <c r="G6" s="25" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="H6" s="27" t="str">
-        <f>CM</f>
+      <c r="H6" s="24" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="I6" s="27" t="str">
-        <f>CM</f>
+      <c r="I6" s="24" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="J6" s="28" t="str">
-        <f>CM</f>
+      <c r="J6" s="25" t="str">
+        <f t="shared" si="6"/>
         <v>Jan</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="V6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="W6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="29" t="s">
+      <c r="X6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Y6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="Z6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AA6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AB6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="29" t="s">
+      <c r="AC6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AD6" s="29" t="s">
+      <c r="AD6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AE6" s="29" t="s">
+      <c r="AE6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AF6" s="29" t="s">
+      <c r="AF6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AG6" s="29" t="s">
+      <c r="AG6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="31" t="s">
+      <c r="AH6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" s="29" t="s">
+      <c r="AI6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AJ6" s="29" t="s">
+      <c r="AJ6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AK6" s="29" t="s">
+      <c r="AK6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" s="29" t="s">
+      <c r="AL6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" s="29" t="s">
+      <c r="AM6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" s="29" t="s">
+      <c r="AN6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AO6" s="29" t="s">
+      <c r="AO6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AP6" s="29" t="s">
+      <c r="AP6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AQ6" s="29" t="s">
+      <c r="AQ6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AR6" s="29" t="s">
+      <c r="AR6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AS6" s="29" t="s">
+      <c r="AS6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AT6" s="29" t="s">
+      <c r="AT6" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="29" t="s">
+      <c r="T7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="29" t="s">
+      <c r="V7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="29" t="s">
+      <c r="X7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Z7" s="29" t="s">
+      <c r="Z7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="29" t="s">
+      <c r="AA7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="29" t="s">
+      <c r="AC7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="29" t="s">
+      <c r="AD7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="29" t="s">
+      <c r="AE7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AF7" s="29" t="s">
+      <c r="AF7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="29" t="s">
+      <c r="AG7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AI7" s="29" t="s">
+      <c r="AI7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AJ7" s="29" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AK7" s="29" t="s">
+      <c r="AK7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AL7" s="29" t="s">
+      <c r="AL7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AM7" s="29" t="s">
+      <c r="AM7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="29" t="s">
+      <c r="AN7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AO7" s="29" t="s">
+      <c r="AO7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AP7" s="29" t="s">
+      <c r="AP7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AQ7" s="29" t="s">
+      <c r="AQ7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AR7" s="29" t="s">
+      <c r="AR7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AS7" s="29" t="s">
+      <c r="AS7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AT7" s="29" t="s">
+      <c r="AT7" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="36" t="s">
+      <c r="W8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AH8" s="37" t="s">
+      <c r="AH8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AI8" s="35" t="s">
+      <c r="AI8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AJ8" s="35" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AK8" s="35" t="s">
+      <c r="AK8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AL8" s="35" t="s">
+      <c r="AL8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AM8" s="35" t="s">
+      <c r="AM8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AN8" s="35" t="s">
+      <c r="AN8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AO8" s="35" t="s">
+      <c r="AO8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AP8" s="35" t="s">
+      <c r="AP8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AQ8" s="35" t="s">
+      <c r="AQ8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AS8" s="35" t="s">
+      <c r="AS8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AT8" s="35" t="s">
+      <c r="AT8" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3087,7 +6863,7 @@
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B10">
@@ -3209,7 +6985,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B11">
@@ -3331,7 +7107,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B12">
@@ -3453,7 +7229,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B13">
@@ -3575,7 +7351,7 @@
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B14">
@@ -3697,7 +7473,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B15">
@@ -3819,7 +7595,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B16">
@@ -3941,7 +7717,7 @@
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="35" t="s">
         <v>57</v>
       </c>
       <c r="B17">
@@ -4063,7 +7839,7 @@
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B18">
@@ -4185,7 +7961,7 @@
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B19">
@@ -4429,7 +8205,7 @@
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B21">
@@ -4551,7 +8327,7 @@
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B22">
@@ -4673,7 +8449,7 @@
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="35" t="s">
         <v>63</v>
       </c>
       <c r="B23">
@@ -4795,7 +8571,7 @@
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B24">
@@ -6733,7 +10509,7 @@
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B39">
@@ -6855,7 +10631,7 @@
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B40">
@@ -6977,7 +10753,7 @@
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B41">
@@ -7099,7 +10875,7 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B42">
@@ -7239,7 +11015,7 @@
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B43">
@@ -7379,7 +11155,7 @@
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B44">
@@ -7659,7 +11435,7 @@
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B46">
@@ -7781,7 +11557,7 @@
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B47">
@@ -7903,7 +11679,7 @@
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B48">
@@ -8025,7 +11801,7 @@
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="35" t="s">
         <v>89</v>
       </c>
       <c r="B49">
@@ -8147,7 +11923,7 @@
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="35" t="s">
         <v>90</v>
       </c>
       <c r="B50">
@@ -8269,7 +12045,7 @@
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B51">
